--- a/regions/10/mretsveloba/mretsveloba.xlsx
+++ b/regions/10/mretsveloba/mretsveloba.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -170,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -192,6 +192,8 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,16 +499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.85546875" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -524,7 +527,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="9">
         <v>2006</v>
@@ -571,8 +574,14 @@
       <c r="P2" s="10">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q2" s="10">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -621,8 +630,16 @@
       <c r="P3" s="11">
         <v>6663.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="11">
+        <v>8842.2999999999993</v>
+      </c>
+      <c r="R3" s="11">
+        <v>10007.4</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="V3" s="13"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -671,8 +688,15 @@
       <c r="P4" s="11">
         <v>4735.1000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="11">
+        <v>6348.9</v>
+      </c>
+      <c r="R4" s="11">
+        <v>7156</v>
+      </c>
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -721,8 +745,15 @@
       <c r="P5" s="12">
         <v>59606</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="12">
+        <v>59964</v>
+      </c>
+      <c r="R5" s="12">
+        <v>59267</v>
+      </c>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -771,8 +802,15 @@
       <c r="P6" s="12">
         <v>59114</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="12">
+        <v>59166</v>
+      </c>
+      <c r="R6" s="12">
+        <v>58443</v>
+      </c>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -821,8 +859,15 @@
       <c r="P7" s="11">
         <v>1185.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="11">
+        <v>1348.4</v>
+      </c>
+      <c r="R7" s="11">
+        <v>1542.6</v>
+      </c>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -871,8 +916,15 @@
       <c r="P8" s="11">
         <v>3052.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="11">
+        <v>3651.5</v>
+      </c>
+      <c r="R8" s="11">
+        <v>4027</v>
+      </c>
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -921,8 +973,15 @@
       <c r="P9" s="11">
         <v>860.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="11">
+        <v>978.8</v>
+      </c>
+      <c r="R9" s="11">
+        <v>1118.4000000000001</v>
+      </c>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -971,8 +1030,15 @@
       <c r="P10" s="11">
         <v>1682.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="11">
+        <v>2697.4</v>
+      </c>
+      <c r="R10" s="11">
+        <v>3129</v>
+      </c>
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1021,8 +1087,14 @@
       <c r="P11" s="11">
         <v>600.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="11">
+        <v>676.1</v>
+      </c>
+      <c r="R11" s="11">
+        <v>756.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1071,8 +1143,15 @@
       <c r="P12" s="11">
         <v>5094.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="11">
+        <v>6386.2</v>
+      </c>
+      <c r="R12" s="11">
+        <v>7138</v>
+      </c>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1088,7 +1167,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
